--- a/final_project/Nucleotide_Freq_old.xlsx
+++ b/final_project/Nucleotide_Freq_old.xlsx
@@ -41,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="diamino_out_16" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Comparative Genomics/Common ComGen/comgen/final_project/FILES_TO_SEND/diamino_out_16.txt" space="1" consecutive="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Comparative Genomics/Common ComGen/comgen/final_project/FILES_TO_SEND/diamino_out_16.txt" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -49,7 +49,7 @@
     </textPr>
   </connection>
   <connection id="2" name="diamino_out_20" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Comparative Genomics/Common ComGen/comgen/final_project/FILES_TO_SEND/diamino_out_20.txt" space="1" consecutive="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Comparative Genomics/Common ComGen/comgen/final_project/FILES_TO_SEND/diamino_out_20.txt" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -57,7 +57,7 @@
     </textPr>
   </connection>
   <connection id="3" name="diamino_out_29" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Comparative Genomics/Common ComGen/comgen/final_project/FILES_TO_SEND/diamino_out_29.txt" space="1" consecutive="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Comparative Genomics/Common ComGen/comgen/final_project/FILES_TO_SEND/diamino_out_29.txt" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -65,7 +65,7 @@
     </textPr>
   </connection>
   <connection id="4" name="diamino_out_44" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Comparative Genomics/Common ComGen/comgen/final_project/FILES_TO_SEND/diamino_out_44.txt" space="1" consecutive="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Comparative Genomics/Common ComGen/comgen/final_project/FILES_TO_SEND/diamino_out_44.txt" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -73,7 +73,7 @@
     </textPr>
   </connection>
   <connection id="5" name="diamino_out_47" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/daryl/Documents/Comparative Genomics/Common ComGen/comgen/final_project/FILES_TO_SEND/diamino_out_47.txt" space="1" consecutive="1">
+    <textPr fileType="mac" sourceFile="/Users/daryl/Documents/Comparative Genomics/Common ComGen/comgen/final_project/FILES_TO_SEND/diamino_out_47.txt" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -1845,12 +1845,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1866,18 +1860,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1904,6 +1886,24 @@
     </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -1988,7 +1988,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3233,11 +3232,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="686055072"/>
-        <c:axId val="686056848"/>
+        <c:axId val="-950815696"/>
+        <c:axId val="-950809984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="686055072"/>
+        <c:axId val="-950815696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3282,7 +3281,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686056848"/>
+        <c:crossAx val="-950809984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3290,7 +3289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="686056848"/>
+        <c:axId val="-950809984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3352,7 +3351,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3413,7 +3411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="686055072"/>
+        <c:crossAx val="-950815696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3427,7 +3425,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3598,11 +3595,11 @@
         </c:dLbls>
         <c:gapWidth val="164"/>
         <c:overlap val="-35"/>
-        <c:axId val="710985760"/>
-        <c:axId val="710980096"/>
+        <c:axId val="-911660112"/>
+        <c:axId val="-911657792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="710985760"/>
+        <c:axId val="-911660112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3639,7 +3636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710980096"/>
+        <c:crossAx val="-911657792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3647,7 +3644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="710980096"/>
+        <c:axId val="-911657792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3679,7 +3676,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3739,7 +3735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="710985760"/>
+        <c:crossAx val="-911660112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3828,7 +3824,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4245,11 +4240,11 @@
         </c:dLbls>
         <c:gapWidth val="50"/>
         <c:overlap val="100"/>
-        <c:axId val="595169264"/>
-        <c:axId val="595348256"/>
+        <c:axId val="-911613312"/>
+        <c:axId val="-911610560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="595169264"/>
+        <c:axId val="-911613312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4294,7 +4289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595348256"/>
+        <c:crossAx val="-911610560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4302,7 +4297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="595348256"/>
+        <c:axId val="-911610560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4364,7 +4359,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4425,7 +4419,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595169264"/>
+        <c:crossAx val="-911613312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4439,7 +4433,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6322,7 +6315,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diamino_out_47" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diamino_out_29" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6330,15 +6323,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diamino_out_29" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diamino_out_47" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diamino_out_20" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diamino_out_16" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diamino_out_16" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="diamino_out_20" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7003,7 +6996,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7012,68 +7005,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="43" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="29" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="31">
         <v>7406</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="32">
         <v>11420</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="31">
         <v>5806</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="32">
         <v>2725</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="31">
         <v>232</v>
       </c>
-      <c r="C4" s="38">
-        <v>3507</v>
+      <c r="C4" s="32">
+        <v>1537</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="31">
         <v>1967</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="32">
         <v>1739</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="34">
         <v>2104</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="35">
         <v>3847</v>
       </c>
     </row>
@@ -7118,21 +7111,21 @@
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="K3" s="16" t="s">
+      <c r="I3" s="16"/>
+      <c r="K3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="20" t="s">
+      <c r="L3" s="41"/>
+      <c r="M3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="32">
+      <c r="N3" s="26">
         <v>4.1799999999999997E-2</v>
       </c>
       <c r="Q3" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="32">
+      <c r="R3" s="26">
         <v>4.1799999999999997E-2</v>
       </c>
     </row>
@@ -7140,7 +7133,7 @@
       <c r="A4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="14" t="s">
         <v>18</v>
       </c>
@@ -7150,7 +7143,7 @@
       <c r="L4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="19" t="s">
         <v>73</v>
       </c>
       <c r="N4">
@@ -7159,7 +7152,7 @@
       <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="27">
         <v>0.4274</v>
       </c>
     </row>
@@ -7167,7 +7160,7 @@
       <c r="A5" s="13">
         <v>20</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="40" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="15" t="s">
@@ -7179,7 +7172,7 @@
       <c r="L5" s="14">
         <v>6880</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="18" t="s">
         <v>74</v>
       </c>
       <c r="N5">
@@ -7188,7 +7181,7 @@
       <c r="Q5" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="33">
+      <c r="R5" s="27">
         <v>0.25190000000000001</v>
       </c>
     </row>
@@ -7196,7 +7189,7 @@
       <c r="A6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="15" t="s">
         <v>48</v>
       </c>
@@ -7209,7 +7202,7 @@
       <c r="Q6" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="33">
+      <c r="R6" s="27">
         <v>0.72019999999999995</v>
       </c>
     </row>
@@ -7220,7 +7213,7 @@
       <c r="Q7" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="33">
+      <c r="R7" s="27">
         <v>8.9899999999999994E-2</v>
       </c>
     </row>
@@ -7233,16 +7226,16 @@
       <c r="A9" s="13">
         <v>29</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="28" t="s">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="23" t="s">
+      <c r="L9" s="37"/>
+      <c r="M9" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="27">
         <v>0.4274</v>
       </c>
     </row>
@@ -7250,20 +7243,20 @@
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="24" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="N10" s="22">
+      <c r="N10" s="20">
         <v>2725</v>
       </c>
     </row>
@@ -7271,22 +7264,22 @@
       <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="23">
         <v>978</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="23">
         <v>874</v>
       </c>
-      <c r="M11" s="23" t="s">
+      <c r="M11" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N11" s="20">
         <v>1852</v>
       </c>
     </row>
@@ -7294,18 +7287,18 @@
       <c r="A12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="27" t="s">
+      <c r="I12" s="39"/>
+      <c r="J12" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="23">
         <v>1747</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
@@ -7316,16 +7309,16 @@
       <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="28" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="23" t="s">
+      <c r="L14" s="37"/>
+      <c r="M14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="N14" s="33">
+      <c r="N14" s="27">
         <v>0.25190000000000001</v>
       </c>
     </row>
@@ -7333,20 +7326,20 @@
       <c r="A15" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="24" t="s">
+      <c r="I15" s="20"/>
+      <c r="J15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N15" s="20">
         <v>730</v>
       </c>
     </row>
@@ -7354,22 +7347,22 @@
       <c r="A16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="23">
         <v>119</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="23">
         <v>96</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="22">
+      <c r="N16" s="20">
         <v>215</v>
       </c>
     </row>
@@ -7377,18 +7370,18 @@
       <c r="A17" s="13">
         <v>47</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="27" t="s">
+      <c r="I17" s="39"/>
+      <c r="J17" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="23">
         <v>611</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
@@ -7399,16 +7392,16 @@
       <c r="A19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="28" t="s">
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="23" t="s">
+      <c r="L19" s="37"/>
+      <c r="M19" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="27">
         <v>0.72019999999999995</v>
       </c>
     </row>
@@ -7416,135 +7409,135 @@
       <c r="A20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="24" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="20">
         <v>1739</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21" s="23">
         <v>1273</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="23">
         <v>523</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N21" s="20">
         <v>1795</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I22" s="31"/>
-      <c r="J22" s="27" t="s">
+      <c r="I22" s="39"/>
+      <c r="J22" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22" s="23">
         <v>466</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="28" t="s">
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="23" t="s">
+      <c r="L24" s="37"/>
+      <c r="M24" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="27">
         <v>8.9899999999999994E-2</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I25" s="22"/>
-      <c r="J25" s="24" t="s">
+      <c r="I25" s="20"/>
+      <c r="J25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M25" s="26" t="s">
+      <c r="M25" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N25" s="20">
         <v>3847</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="25">
+      <c r="K26" s="23">
         <v>263</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="23">
         <v>1742</v>
       </c>
-      <c r="M26" s="23" t="s">
+      <c r="M26" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="N26" s="22">
+      <c r="N26" s="20">
         <v>2001</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="I27" s="31"/>
-      <c r="J27" s="27" t="s">
+      <c r="I27" s="39"/>
+      <c r="J27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="25">
+      <c r="K27" s="23">
         <v>3584</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="I16:I17"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="I26:I27"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="I16:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7869,24 +7862,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -7906,7 +7899,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -7926,7 +7919,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B4">
@@ -7946,7 +7939,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B5">
@@ -7966,7 +7959,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B6">
@@ -7986,7 +7979,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7">
@@ -8006,7 +7999,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B8">
@@ -8026,7 +8019,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B9">
@@ -8046,7 +8039,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>80</v>
       </c>
       <c r="B10">
@@ -8066,7 +8059,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>81</v>
       </c>
       <c r="B11">
@@ -8086,7 +8079,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B12">
@@ -8106,7 +8099,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>83</v>
       </c>
       <c r="B13">
@@ -8126,7 +8119,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B14">
@@ -8146,7 +8139,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B15">
@@ -8166,7 +8159,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B16">
@@ -8186,7 +8179,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="17" t="s">
         <v>87</v>
       </c>
       <c r="B17">
@@ -8206,7 +8199,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B18">
@@ -8226,7 +8219,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="17" t="s">
         <v>88</v>
       </c>
       <c r="B19">
@@ -8246,7 +8239,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B20">
@@ -8266,7 +8259,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="17" t="s">
         <v>90</v>
       </c>
       <c r="B21">
@@ -8286,7 +8279,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B22">
@@ -8306,7 +8299,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B23">
@@ -8326,7 +8319,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="17" t="s">
         <v>91</v>
       </c>
       <c r="B24">
@@ -8346,7 +8339,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>92</v>
       </c>
       <c r="B25">
@@ -8366,7 +8359,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="17" t="s">
         <v>93</v>
       </c>
       <c r="B26">
@@ -8386,7 +8379,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B27">
@@ -8406,7 +8399,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="17" t="s">
         <v>94</v>
       </c>
       <c r="B28">
@@ -8426,7 +8419,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="17" t="s">
         <v>95</v>
       </c>
       <c r="B29">
@@ -8446,7 +8439,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>96</v>
       </c>
       <c r="B30">
@@ -8466,7 +8459,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="17" t="s">
         <v>97</v>
       </c>
       <c r="B31">
@@ -8486,7 +8479,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>98</v>
       </c>
       <c r="B32">
@@ -8506,7 +8499,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="17" t="s">
         <v>99</v>
       </c>
       <c r="B33">
@@ -8526,7 +8519,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="17" t="s">
         <v>100</v>
       </c>
       <c r="B34">
@@ -8546,7 +8539,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="17" t="s">
         <v>101</v>
       </c>
       <c r="B35">
@@ -8566,7 +8559,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="17" t="s">
         <v>102</v>
       </c>
       <c r="B36">
@@ -8586,7 +8579,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="17" t="s">
         <v>103</v>
       </c>
       <c r="B37">
@@ -8606,7 +8599,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B38">
@@ -8626,7 +8619,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="17" t="s">
         <v>104</v>
       </c>
       <c r="B39">
@@ -8646,7 +8639,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="17" t="s">
         <v>105</v>
       </c>
       <c r="B40">
@@ -8666,7 +8659,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B41">
@@ -8686,7 +8679,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="17" t="s">
         <v>107</v>
       </c>
       <c r="B42">
@@ -8706,7 +8699,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="17" t="s">
         <v>108</v>
       </c>
       <c r="B43">
@@ -8726,7 +8719,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="17" t="s">
         <v>109</v>
       </c>
       <c r="B44">
@@ -8746,7 +8739,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="17" t="s">
         <v>110</v>
       </c>
       <c r="B45">
@@ -8766,7 +8759,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="17" t="s">
         <v>111</v>
       </c>
       <c r="B46">
@@ -8786,7 +8779,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="17" t="s">
         <v>112</v>
       </c>
       <c r="B47">
@@ -8806,7 +8799,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="17" t="s">
         <v>113</v>
       </c>
       <c r="B48">
@@ -8826,7 +8819,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="17" t="s">
         <v>114</v>
       </c>
       <c r="B49">
@@ -8846,7 +8839,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="17" t="s">
         <v>115</v>
       </c>
       <c r="B50">
@@ -8866,7 +8859,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="17" t="s">
         <v>116</v>
       </c>
       <c r="B51">
@@ -8886,7 +8879,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="17" t="s">
         <v>117</v>
       </c>
       <c r="B52">
@@ -8906,7 +8899,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B53">
@@ -8926,7 +8919,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="17" t="s">
         <v>119</v>
       </c>
       <c r="B54">
@@ -8946,7 +8939,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="17" t="s">
         <v>120</v>
       </c>
       <c r="B55">
@@ -8966,7 +8959,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="17" t="s">
         <v>121</v>
       </c>
       <c r="B56">
@@ -8986,7 +8979,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="A57" s="17" t="s">
         <v>122</v>
       </c>
       <c r="B57">
@@ -9006,7 +8999,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="17" t="s">
         <v>123</v>
       </c>
       <c r="B58">
@@ -9026,7 +9019,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="17" t="s">
         <v>124</v>
       </c>
       <c r="B59">
@@ -9046,7 +9039,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="17" t="s">
         <v>125</v>
       </c>
       <c r="B60">
@@ -9066,7 +9059,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="17" t="s">
         <v>126</v>
       </c>
       <c r="B61">
@@ -9086,7 +9079,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="17" t="s">
         <v>127</v>
       </c>
       <c r="B62">
@@ -9106,7 +9099,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
+      <c r="A63" s="17" t="s">
         <v>128</v>
       </c>
       <c r="B63">
@@ -9126,7 +9119,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="17" t="s">
         <v>129</v>
       </c>
       <c r="B64">
@@ -9146,7 +9139,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="17" t="s">
         <v>130</v>
       </c>
       <c r="B65">
@@ -9166,7 +9159,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="17" t="s">
         <v>131</v>
       </c>
       <c r="B66">
@@ -9186,7 +9179,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="17" t="s">
         <v>132</v>
       </c>
       <c r="B67">
@@ -9206,7 +9199,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="17" t="s">
         <v>133</v>
       </c>
       <c r="B68">
@@ -9226,7 +9219,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="17" t="s">
         <v>134</v>
       </c>
       <c r="B69">
@@ -9246,7 +9239,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="17" t="s">
         <v>135</v>
       </c>
       <c r="B70">
@@ -9266,7 +9259,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="17" t="s">
         <v>136</v>
       </c>
       <c r="B71">
@@ -9286,7 +9279,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="17" t="s">
         <v>137</v>
       </c>
       <c r="B72">
@@ -9306,7 +9299,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="17" t="s">
         <v>138</v>
       </c>
       <c r="B73">
@@ -9326,7 +9319,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="17" t="s">
         <v>139</v>
       </c>
       <c r="B74">
@@ -9346,7 +9339,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="17" t="s">
         <v>140</v>
       </c>
       <c r="B75">
@@ -9366,7 +9359,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="17" t="s">
         <v>141</v>
       </c>
       <c r="B76">
@@ -9386,7 +9379,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="17" t="s">
         <v>142</v>
       </c>
       <c r="B77">
@@ -9406,7 +9399,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="17" t="s">
         <v>143</v>
       </c>
       <c r="B78">
@@ -9426,7 +9419,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="17" t="s">
         <v>144</v>
       </c>
       <c r="B79">
@@ -9446,7 +9439,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="17" t="s">
         <v>145</v>
       </c>
       <c r="B80">
@@ -9466,7 +9459,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="17" t="s">
         <v>146</v>
       </c>
       <c r="B81">
@@ -9486,7 +9479,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="17" t="s">
         <v>147</v>
       </c>
       <c r="B82">
@@ -9506,7 +9499,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
+      <c r="A83" s="17" t="s">
         <v>148</v>
       </c>
       <c r="B83">
@@ -9526,7 +9519,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="17" t="s">
         <v>149</v>
       </c>
       <c r="B84">
@@ -9546,7 +9539,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
+      <c r="A85" s="17" t="s">
         <v>150</v>
       </c>
       <c r="B85">
@@ -9566,7 +9559,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B86">
@@ -9586,7 +9579,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
+      <c r="A87" s="17" t="s">
         <v>151</v>
       </c>
       <c r="B87">
@@ -9606,7 +9599,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="17" t="s">
         <v>152</v>
       </c>
       <c r="B88">
@@ -9626,7 +9619,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
+      <c r="A89" s="17" t="s">
         <v>153</v>
       </c>
       <c r="B89">
@@ -9646,7 +9639,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="17" t="s">
         <v>154</v>
       </c>
       <c r="B90">
@@ -9666,7 +9659,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="A91" s="17" t="s">
         <v>155</v>
       </c>
       <c r="B91">
@@ -9686,7 +9679,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="17" t="s">
         <v>156</v>
       </c>
       <c r="B92">
@@ -9706,7 +9699,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="19" t="s">
+      <c r="A93" s="17" t="s">
         <v>157</v>
       </c>
       <c r="B93">
@@ -9726,7 +9719,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B94">
@@ -9746,7 +9739,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="17" t="s">
         <v>158</v>
       </c>
       <c r="B95">
@@ -9766,7 +9759,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="17" t="s">
         <v>159</v>
       </c>
       <c r="B96">
@@ -9786,7 +9779,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
+      <c r="A97" s="17" t="s">
         <v>160</v>
       </c>
       <c r="B97">
@@ -9806,7 +9799,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="19" t="s">
+      <c r="A98" s="17" t="s">
         <v>161</v>
       </c>
       <c r="B98">
@@ -9826,7 +9819,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="19" t="s">
+      <c r="A99" s="17" t="s">
         <v>162</v>
       </c>
       <c r="B99">
@@ -9846,7 +9839,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="17" t="s">
         <v>163</v>
       </c>
       <c r="B100">
@@ -9866,7 +9859,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="17" t="s">
         <v>164</v>
       </c>
       <c r="B101">
@@ -9886,7 +9879,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B102">
@@ -9906,7 +9899,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="19" t="s">
+      <c r="A103" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B103">
@@ -9926,7 +9919,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="19" t="s">
+      <c r="A104" s="17" t="s">
         <v>165</v>
       </c>
       <c r="B104">
@@ -9946,7 +9939,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="19" t="s">
+      <c r="A105" s="17" t="s">
         <v>166</v>
       </c>
       <c r="B105">
@@ -9966,7 +9959,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="17" t="s">
         <v>167</v>
       </c>
       <c r="B106">
@@ -9986,7 +9979,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
+      <c r="A107" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B107">
@@ -10006,7 +9999,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B108">
@@ -10026,7 +10019,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="19" t="s">
+      <c r="A109" s="17" t="s">
         <v>169</v>
       </c>
       <c r="B109">
@@ -10046,7 +10039,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="19" t="s">
+      <c r="A110" s="17" t="s">
         <v>170</v>
       </c>
       <c r="B110">
@@ -10066,7 +10059,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="19" t="s">
+      <c r="A111" s="17" t="s">
         <v>171</v>
       </c>
       <c r="B111">
@@ -10086,7 +10079,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="17" t="s">
         <v>172</v>
       </c>
       <c r="B112">
@@ -10106,7 +10099,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="17" t="s">
         <v>173</v>
       </c>
       <c r="B113">
@@ -10126,7 +10119,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="19" t="s">
+      <c r="A114" s="17" t="s">
         <v>174</v>
       </c>
       <c r="B114">
@@ -10146,7 +10139,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="19" t="s">
+      <c r="A115" s="17" t="s">
         <v>175</v>
       </c>
       <c r="B115">
@@ -10166,7 +10159,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="19" t="s">
+      <c r="A116" s="17" t="s">
         <v>176</v>
       </c>
       <c r="B116">
@@ -10186,7 +10179,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="19" t="s">
+      <c r="A117" s="17" t="s">
         <v>177</v>
       </c>
       <c r="B117">
@@ -10206,7 +10199,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="19" t="s">
+      <c r="A118" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B118">
@@ -10226,7 +10219,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B119">
@@ -10246,7 +10239,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="19" t="s">
+      <c r="A120" s="17" t="s">
         <v>179</v>
       </c>
       <c r="B120">
@@ -10266,7 +10259,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="19" t="s">
+      <c r="A121" s="17" t="s">
         <v>180</v>
       </c>
       <c r="B121">
@@ -10286,7 +10279,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="17" t="s">
         <v>181</v>
       </c>
       <c r="B122">
@@ -10306,7 +10299,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="19" t="s">
+      <c r="A123" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B123">
@@ -10326,7 +10319,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="17" t="s">
         <v>183</v>
       </c>
       <c r="B124">
@@ -10346,7 +10339,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="19" t="s">
+      <c r="A125" s="17" t="s">
         <v>184</v>
       </c>
       <c r="B125">
@@ -10366,7 +10359,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="19" t="s">
+      <c r="A126" s="17" t="s">
         <v>185</v>
       </c>
       <c r="B126">
@@ -10386,7 +10379,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="17" t="s">
         <v>186</v>
       </c>
       <c r="B127">
@@ -10406,7 +10399,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="19" t="s">
+      <c r="A128" s="17" t="s">
         <v>187</v>
       </c>
       <c r="B128">
@@ -10426,7 +10419,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="17" t="s">
         <v>188</v>
       </c>
       <c r="B129">
@@ -10446,7 +10439,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="19" t="s">
+      <c r="A130" s="17" t="s">
         <v>189</v>
       </c>
       <c r="B130">
@@ -10466,7 +10459,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="19" t="s">
+      <c r="A131" s="17" t="s">
         <v>190</v>
       </c>
       <c r="B131">
@@ -10486,7 +10479,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="17" t="s">
         <v>191</v>
       </c>
       <c r="B132">
@@ -10506,7 +10499,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="19" t="s">
+      <c r="A133" s="17" t="s">
         <v>192</v>
       </c>
       <c r="B133">
@@ -10526,7 +10519,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="19" t="s">
+      <c r="A134" s="17" t="s">
         <v>193</v>
       </c>
       <c r="B134">
@@ -10546,7 +10539,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="19" t="s">
+      <c r="A135" s="17" t="s">
         <v>194</v>
       </c>
       <c r="B135">
@@ -10566,7 +10559,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="19" t="s">
+      <c r="A136" s="17" t="s">
         <v>195</v>
       </c>
       <c r="B136">
@@ -10586,7 +10579,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="19" t="s">
+      <c r="A137" s="17" t="s">
         <v>196</v>
       </c>
       <c r="B137">
@@ -10606,7 +10599,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="19" t="s">
+      <c r="A138" s="17" t="s">
         <v>197</v>
       </c>
       <c r="B138">
@@ -10626,7 +10619,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="17" t="s">
         <v>198</v>
       </c>
       <c r="B139">
@@ -10646,7 +10639,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="19" t="s">
+      <c r="A140" s="17" t="s">
         <v>199</v>
       </c>
       <c r="B140">
@@ -10666,7 +10659,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="19" t="s">
+      <c r="A141" s="17" t="s">
         <v>200</v>
       </c>
       <c r="B141">
@@ -10686,7 +10679,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="17" t="s">
         <v>201</v>
       </c>
       <c r="B142">
@@ -10706,7 +10699,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="19" t="s">
+      <c r="A143" s="17" t="s">
         <v>202</v>
       </c>
       <c r="B143">
@@ -10726,7 +10719,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="19" t="s">
+      <c r="A144" s="17" t="s">
         <v>203</v>
       </c>
       <c r="B144">
@@ -10746,7 +10739,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="19" t="s">
+      <c r="A145" s="17" t="s">
         <v>204</v>
       </c>
       <c r="B145">
@@ -10766,7 +10759,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="19" t="s">
+      <c r="A146" s="17" t="s">
         <v>205</v>
       </c>
       <c r="B146">
@@ -10786,7 +10779,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="19" t="s">
+      <c r="A147" s="17" t="s">
         <v>206</v>
       </c>
       <c r="B147">
@@ -10806,7 +10799,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="19" t="s">
+      <c r="A148" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B148">
@@ -10826,7 +10819,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="19" t="s">
+      <c r="A149" s="17" t="s">
         <v>208</v>
       </c>
       <c r="B149">
@@ -10846,7 +10839,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="19" t="s">
+      <c r="A150" s="17" t="s">
         <v>209</v>
       </c>
       <c r="B150">
@@ -10866,7 +10859,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="19" t="s">
+      <c r="A151" s="17" t="s">
         <v>210</v>
       </c>
       <c r="B151">
@@ -10886,7 +10879,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="19" t="s">
+      <c r="A152" s="17" t="s">
         <v>211</v>
       </c>
       <c r="B152">
@@ -10906,7 +10899,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="19" t="s">
+      <c r="A153" s="17" t="s">
         <v>212</v>
       </c>
       <c r="B153">
@@ -10926,7 +10919,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="19" t="s">
+      <c r="A154" s="17" t="s">
         <v>213</v>
       </c>
       <c r="B154">
@@ -10946,7 +10939,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="19" t="s">
+      <c r="A155" s="17" t="s">
         <v>214</v>
       </c>
       <c r="B155">
@@ -10966,7 +10959,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="19" t="s">
+      <c r="A156" s="17" t="s">
         <v>215</v>
       </c>
       <c r="B156">
@@ -10986,7 +10979,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="19" t="s">
+      <c r="A157" s="17" t="s">
         <v>216</v>
       </c>
       <c r="B157">
@@ -11006,7 +10999,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="19" t="s">
+      <c r="A158" s="17" t="s">
         <v>217</v>
       </c>
       <c r="B158">
@@ -11026,7 +11019,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="19" t="s">
+      <c r="A159" s="17" t="s">
         <v>218</v>
       </c>
       <c r="B159">
@@ -11046,7 +11039,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="19" t="s">
+      <c r="A160" s="17" t="s">
         <v>219</v>
       </c>
       <c r="B160">
@@ -11066,7 +11059,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="19" t="s">
+      <c r="A161" s="17" t="s">
         <v>220</v>
       </c>
       <c r="B161">
@@ -11086,7 +11079,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="19" t="s">
+      <c r="A162" s="17" t="s">
         <v>221</v>
       </c>
       <c r="B162">
@@ -11106,7 +11099,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="19" t="s">
+      <c r="A163" s="17" t="s">
         <v>222</v>
       </c>
       <c r="B163">
@@ -11126,7 +11119,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="19" t="s">
+      <c r="A164" s="17" t="s">
         <v>223</v>
       </c>
       <c r="B164">
@@ -11146,7 +11139,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="19" t="s">
+      <c r="A165" s="17" t="s">
         <v>224</v>
       </c>
       <c r="B165">
@@ -11166,7 +11159,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="19" t="s">
+      <c r="A166" s="17" t="s">
         <v>225</v>
       </c>
       <c r="B166">
@@ -11186,7 +11179,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="19" t="s">
+      <c r="A167" s="17" t="s">
         <v>226</v>
       </c>
       <c r="B167">
@@ -11206,7 +11199,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="19" t="s">
+      <c r="A168" s="17" t="s">
         <v>227</v>
       </c>
       <c r="B168">
@@ -11226,7 +11219,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="19" t="s">
+      <c r="A169" s="17" t="s">
         <v>228</v>
       </c>
       <c r="B169">
@@ -11246,7 +11239,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="19" t="s">
+      <c r="A170" s="17" t="s">
         <v>229</v>
       </c>
       <c r="B170">
@@ -11266,7 +11259,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="19" t="s">
+      <c r="A171" s="17" t="s">
         <v>230</v>
       </c>
       <c r="B171">
@@ -11286,7 +11279,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="19" t="s">
+      <c r="A172" s="17" t="s">
         <v>231</v>
       </c>
       <c r="B172">
@@ -11306,7 +11299,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173" s="19" t="s">
+      <c r="A173" s="17" t="s">
         <v>232</v>
       </c>
       <c r="B173">
@@ -11326,7 +11319,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174" s="19" t="s">
+      <c r="A174" s="17" t="s">
         <v>233</v>
       </c>
       <c r="B174">
@@ -11346,7 +11339,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="19" t="s">
+      <c r="A175" s="17" t="s">
         <v>234</v>
       </c>
       <c r="B175">
@@ -11366,7 +11359,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176" s="19" t="s">
+      <c r="A176" s="17" t="s">
         <v>235</v>
       </c>
       <c r="B176">
@@ -11386,7 +11379,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="19" t="s">
+      <c r="A177" s="17" t="s">
         <v>236</v>
       </c>
       <c r="B177">
@@ -11406,7 +11399,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="19" t="s">
+      <c r="A178" s="17" t="s">
         <v>237</v>
       </c>
       <c r="B178">
@@ -11426,7 +11419,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="19" t="s">
+      <c r="A179" s="17" t="s">
         <v>238</v>
       </c>
       <c r="B179">
@@ -11446,7 +11439,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="19" t="s">
+      <c r="A180" s="17" t="s">
         <v>239</v>
       </c>
       <c r="B180">
@@ -11466,7 +11459,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="19" t="s">
+      <c r="A181" s="17" t="s">
         <v>240</v>
       </c>
       <c r="B181">
@@ -11486,7 +11479,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="19" t="s">
+      <c r="A182" s="17" t="s">
         <v>241</v>
       </c>
       <c r="B182">
@@ -11506,7 +11499,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="19" t="s">
+      <c r="A183" s="17" t="s">
         <v>242</v>
       </c>
       <c r="B183">
@@ -11526,7 +11519,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="19" t="s">
+      <c r="A184" s="17" t="s">
         <v>243</v>
       </c>
       <c r="B184">
@@ -11546,7 +11539,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="19" t="s">
+      <c r="A185" s="17" t="s">
         <v>244</v>
       </c>
       <c r="B185">
@@ -11566,7 +11559,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="19" t="s">
+      <c r="A186" s="17" t="s">
         <v>245</v>
       </c>
       <c r="B186">
@@ -11586,7 +11579,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="19" t="s">
+      <c r="A187" s="17" t="s">
         <v>246</v>
       </c>
       <c r="B187">
@@ -11606,7 +11599,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="19" t="s">
+      <c r="A188" s="17" t="s">
         <v>247</v>
       </c>
       <c r="B188">
@@ -11626,7 +11619,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="19" t="s">
+      <c r="A189" s="17" t="s">
         <v>248</v>
       </c>
       <c r="B189">
@@ -11646,7 +11639,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="19" t="s">
+      <c r="A190" s="17" t="s">
         <v>249</v>
       </c>
       <c r="B190">
@@ -11666,7 +11659,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="19" t="s">
+      <c r="A191" s="17" t="s">
         <v>250</v>
       </c>
       <c r="B191">
@@ -11686,7 +11679,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="19" t="s">
+      <c r="A192" s="17" t="s">
         <v>251</v>
       </c>
       <c r="B192">
@@ -11706,7 +11699,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="19" t="s">
+      <c r="A193" s="17" t="s">
         <v>252</v>
       </c>
       <c r="B193">
@@ -11726,7 +11719,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="19" t="s">
+      <c r="A194" s="17" t="s">
         <v>253</v>
       </c>
       <c r="B194">
@@ -11746,7 +11739,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="19" t="s">
+      <c r="A195" s="17" t="s">
         <v>254</v>
       </c>
       <c r="B195">
@@ -11766,7 +11759,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="19" t="s">
+      <c r="A196" s="17" t="s">
         <v>255</v>
       </c>
       <c r="B196">
@@ -11786,7 +11779,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="19" t="s">
+      <c r="A197" s="17" t="s">
         <v>256</v>
       </c>
       <c r="B197">
@@ -11806,7 +11799,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="19" t="s">
+      <c r="A198" s="17" t="s">
         <v>257</v>
       </c>
       <c r="B198">
@@ -11826,7 +11819,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="19" t="s">
+      <c r="A199" s="17" t="s">
         <v>258</v>
       </c>
       <c r="B199">
@@ -11846,7 +11839,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="19" t="s">
+      <c r="A200" s="17" t="s">
         <v>259</v>
       </c>
       <c r="B200">
@@ -11866,7 +11859,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="19" t="s">
+      <c r="A201" s="17" t="s">
         <v>260</v>
       </c>
       <c r="B201">
@@ -11886,7 +11879,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="19" t="s">
+      <c r="A202" s="17" t="s">
         <v>261</v>
       </c>
       <c r="B202">
@@ -11906,7 +11899,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="19" t="s">
+      <c r="A203" s="17" t="s">
         <v>262</v>
       </c>
       <c r="B203">
@@ -11926,7 +11919,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="19" t="s">
+      <c r="A204" s="17" t="s">
         <v>263</v>
       </c>
       <c r="B204">
@@ -11946,7 +11939,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="19" t="s">
+      <c r="A205" s="17" t="s">
         <v>264</v>
       </c>
       <c r="B205">
@@ -11966,7 +11959,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="19" t="s">
+      <c r="A206" s="17" t="s">
         <v>265</v>
       </c>
       <c r="B206">
@@ -11986,7 +11979,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="19" t="s">
+      <c r="A207" s="17" t="s">
         <v>266</v>
       </c>
       <c r="B207">
@@ -12006,7 +11999,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="19" t="s">
+      <c r="A208" s="17" t="s">
         <v>267</v>
       </c>
       <c r="B208">
@@ -12026,7 +12019,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="19" t="s">
+      <c r="A209" s="17" t="s">
         <v>268</v>
       </c>
       <c r="B209">
@@ -12046,7 +12039,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="19" t="s">
+      <c r="A210" s="17" t="s">
         <v>269</v>
       </c>
       <c r="B210">
@@ -12066,7 +12059,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="19" t="s">
+      <c r="A211" s="17" t="s">
         <v>270</v>
       </c>
       <c r="B211">
@@ -12086,7 +12079,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="19" t="s">
+      <c r="A212" s="17" t="s">
         <v>271</v>
       </c>
       <c r="B212">
@@ -12106,7 +12099,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="19" t="s">
+      <c r="A213" s="17" t="s">
         <v>272</v>
       </c>
       <c r="B213">
@@ -12126,7 +12119,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="19" t="s">
+      <c r="A214" s="17" t="s">
         <v>273</v>
       </c>
       <c r="B214">
@@ -12146,7 +12139,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="19" t="s">
+      <c r="A215" s="17" t="s">
         <v>274</v>
       </c>
       <c r="B215">
@@ -12166,7 +12159,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="19" t="s">
+      <c r="A216" s="17" t="s">
         <v>275</v>
       </c>
       <c r="B216">
@@ -12186,7 +12179,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="19" t="s">
+      <c r="A217" s="17" t="s">
         <v>276</v>
       </c>
       <c r="B217">
@@ -12206,7 +12199,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="19" t="s">
+      <c r="A218" s="17" t="s">
         <v>277</v>
       </c>
       <c r="B218">
@@ -12226,7 +12219,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="19" t="s">
+      <c r="A219" s="17" t="s">
         <v>278</v>
       </c>
       <c r="B219">
@@ -12246,7 +12239,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="19" t="s">
+      <c r="A220" s="17" t="s">
         <v>279</v>
       </c>
       <c r="B220">
@@ -12266,7 +12259,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="19" t="s">
+      <c r="A221" s="17" t="s">
         <v>280</v>
       </c>
       <c r="B221">
@@ -12286,7 +12279,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="19" t="s">
+      <c r="A222" s="17" t="s">
         <v>281</v>
       </c>
       <c r="B222">
@@ -12306,7 +12299,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="19" t="s">
+      <c r="A223" s="17" t="s">
         <v>282</v>
       </c>
       <c r="B223">
@@ -12326,7 +12319,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="19" t="s">
+      <c r="A224" s="17" t="s">
         <v>283</v>
       </c>
       <c r="B224">
@@ -12346,7 +12339,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225" s="19" t="s">
+      <c r="A225" s="17" t="s">
         <v>284</v>
       </c>
       <c r="B225">
@@ -12366,7 +12359,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="19" t="s">
+      <c r="A226" s="17" t="s">
         <v>285</v>
       </c>
       <c r="B226">
@@ -12386,7 +12379,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="19" t="s">
+      <c r="A227" s="17" t="s">
         <v>286</v>
       </c>
       <c r="B227">
@@ -12406,7 +12399,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="19" t="s">
+      <c r="A228" s="17" t="s">
         <v>287</v>
       </c>
       <c r="B228">
@@ -12426,7 +12419,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="19" t="s">
+      <c r="A229" s="17" t="s">
         <v>288</v>
       </c>
       <c r="B229">
@@ -12446,7 +12439,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="19" t="s">
+      <c r="A230" s="17" t="s">
         <v>289</v>
       </c>
       <c r="B230">
@@ -12466,7 +12459,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231" s="19" t="s">
+      <c r="A231" s="17" t="s">
         <v>290</v>
       </c>
       <c r="B231">
@@ -12486,7 +12479,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="19" t="s">
+      <c r="A232" s="17" t="s">
         <v>291</v>
       </c>
       <c r="B232">
@@ -12506,7 +12499,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="19" t="s">
+      <c r="A233" s="17" t="s">
         <v>292</v>
       </c>
       <c r="B233">
@@ -12526,7 +12519,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="19" t="s">
+      <c r="A234" s="17" t="s">
         <v>293</v>
       </c>
       <c r="B234">
@@ -12546,7 +12539,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235" s="19" t="s">
+      <c r="A235" s="17" t="s">
         <v>294</v>
       </c>
       <c r="B235">
@@ -12566,7 +12559,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236" s="19" t="s">
+      <c r="A236" s="17" t="s">
         <v>295</v>
       </c>
       <c r="B236">
@@ -12586,7 +12579,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237" s="19" t="s">
+      <c r="A237" s="17" t="s">
         <v>296</v>
       </c>
       <c r="B237">
@@ -12606,7 +12599,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238" s="19" t="s">
+      <c r="A238" s="17" t="s">
         <v>297</v>
       </c>
       <c r="B238">
@@ -12626,7 +12619,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="19" t="s">
+      <c r="A239" s="17" t="s">
         <v>298</v>
       </c>
       <c r="B239">
@@ -12646,7 +12639,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="19" t="s">
+      <c r="A240" s="17" t="s">
         <v>299</v>
       </c>
       <c r="B240">
@@ -12666,7 +12659,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241" s="19" t="s">
+      <c r="A241" s="17" t="s">
         <v>300</v>
       </c>
       <c r="B241">
@@ -12686,7 +12679,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242" s="19" t="s">
+      <c r="A242" s="17" t="s">
         <v>301</v>
       </c>
       <c r="B242">
@@ -12706,7 +12699,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243" s="19" t="s">
+      <c r="A243" s="17" t="s">
         <v>302</v>
       </c>
       <c r="B243">
@@ -12726,7 +12719,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244" s="19" t="s">
+      <c r="A244" s="17" t="s">
         <v>303</v>
       </c>
       <c r="B244">
@@ -12746,7 +12739,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245" s="19" t="s">
+      <c r="A245" s="17" t="s">
         <v>304</v>
       </c>
       <c r="B245">
@@ -12766,7 +12759,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246" s="19" t="s">
+      <c r="A246" s="17" t="s">
         <v>305</v>
       </c>
       <c r="B246">
@@ -12786,7 +12779,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247" s="19" t="s">
+      <c r="A247" s="17" t="s">
         <v>306</v>
       </c>
       <c r="B247">
@@ -12806,7 +12799,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248" s="19" t="s">
+      <c r="A248" s="17" t="s">
         <v>307</v>
       </c>
       <c r="B248">
@@ -12826,7 +12819,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249" s="19" t="s">
+      <c r="A249" s="17" t="s">
         <v>308</v>
       </c>
       <c r="B249">
@@ -12846,7 +12839,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250" s="19" t="s">
+      <c r="A250" s="17" t="s">
         <v>309</v>
       </c>
       <c r="B250">
@@ -12866,7 +12859,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251" s="19" t="s">
+      <c r="A251" s="17" t="s">
         <v>310</v>
       </c>
       <c r="B251">
@@ -12886,7 +12879,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252" s="19" t="s">
+      <c r="A252" s="17" t="s">
         <v>311</v>
       </c>
       <c r="B252">
@@ -12906,7 +12899,7 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253" s="19" t="s">
+      <c r="A253" s="17" t="s">
         <v>312</v>
       </c>
       <c r="B253">
@@ -12926,7 +12919,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254" s="19" t="s">
+      <c r="A254" s="17" t="s">
         <v>313</v>
       </c>
       <c r="B254">
@@ -12946,7 +12939,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255" s="19" t="s">
+      <c r="A255" s="17" t="s">
         <v>314</v>
       </c>
       <c r="B255">
@@ -12966,7 +12959,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256" s="19" t="s">
+      <c r="A256" s="17" t="s">
         <v>315</v>
       </c>
       <c r="B256">
@@ -12986,7 +12979,7 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257" s="19" t="s">
+      <c r="A257" s="17" t="s">
         <v>316</v>
       </c>
       <c r="B257">
@@ -13006,7 +12999,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258" s="19" t="s">
+      <c r="A258" s="17" t="s">
         <v>317</v>
       </c>
       <c r="B258">
@@ -13026,7 +13019,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259" s="19" t="s">
+      <c r="A259" s="17" t="s">
         <v>318</v>
       </c>
       <c r="B259">
@@ -13046,7 +13039,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260" s="19" t="s">
+      <c r="A260" s="17" t="s">
         <v>319</v>
       </c>
       <c r="B260">
@@ -13066,7 +13059,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" s="19" t="s">
+      <c r="A261" s="17" t="s">
         <v>320</v>
       </c>
       <c r="B261">
@@ -13086,7 +13079,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" s="19" t="s">
+      <c r="A262" s="17" t="s">
         <v>321</v>
       </c>
       <c r="B262">
@@ -13106,7 +13099,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" s="19" t="s">
+      <c r="A263" s="17" t="s">
         <v>322</v>
       </c>
       <c r="B263">
@@ -13126,7 +13119,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264" s="19" t="s">
+      <c r="A264" s="17" t="s">
         <v>323</v>
       </c>
       <c r="B264">
@@ -13146,7 +13139,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265" s="19" t="s">
+      <c r="A265" s="17" t="s">
         <v>324</v>
       </c>
       <c r="B265">
@@ -13166,7 +13159,7 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266" s="19" t="s">
+      <c r="A266" s="17" t="s">
         <v>325</v>
       </c>
       <c r="B266">
@@ -13186,7 +13179,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="19" t="s">
+      <c r="A267" s="17" t="s">
         <v>326</v>
       </c>
       <c r="B267">
@@ -13206,7 +13199,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268" s="19" t="s">
+      <c r="A268" s="17" t="s">
         <v>327</v>
       </c>
       <c r="B268">
@@ -13226,7 +13219,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269" s="19" t="s">
+      <c r="A269" s="17" t="s">
         <v>328</v>
       </c>
       <c r="B269">
@@ -13246,7 +13239,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270" s="19" t="s">
+      <c r="A270" s="17" t="s">
         <v>329</v>
       </c>
       <c r="B270">
@@ -13266,7 +13259,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271" s="19" t="s">
+      <c r="A271" s="17" t="s">
         <v>330</v>
       </c>
       <c r="B271">
@@ -13286,7 +13279,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272" s="19" t="s">
+      <c r="A272" s="17" t="s">
         <v>331</v>
       </c>
       <c r="B272">
@@ -13306,7 +13299,7 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273" s="19" t="s">
+      <c r="A273" s="17" t="s">
         <v>332</v>
       </c>
       <c r="B273">
@@ -13326,7 +13319,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274" s="19" t="s">
+      <c r="A274" s="17" t="s">
         <v>333</v>
       </c>
       <c r="B274">
@@ -13346,7 +13339,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275" s="19" t="s">
+      <c r="A275" s="17" t="s">
         <v>334</v>
       </c>
       <c r="B275">
@@ -13366,7 +13359,7 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276" s="19" t="s">
+      <c r="A276" s="17" t="s">
         <v>335</v>
       </c>
       <c r="B276">
@@ -13386,7 +13379,7 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277" s="19" t="s">
+      <c r="A277" s="17" t="s">
         <v>336</v>
       </c>
       <c r="B277">
@@ -13406,7 +13399,7 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278" s="19" t="s">
+      <c r="A278" s="17" t="s">
         <v>337</v>
       </c>
       <c r="B278">
@@ -13426,7 +13419,7 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279" s="19" t="s">
+      <c r="A279" s="17" t="s">
         <v>338</v>
       </c>
       <c r="B279">
@@ -13446,7 +13439,7 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280" s="19" t="s">
+      <c r="A280" s="17" t="s">
         <v>339</v>
       </c>
       <c r="B280">
@@ -13466,7 +13459,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281" s="19" t="s">
+      <c r="A281" s="17" t="s">
         <v>340</v>
       </c>
       <c r="B281">
@@ -13486,7 +13479,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282" s="19" t="s">
+      <c r="A282" s="17" t="s">
         <v>341</v>
       </c>
       <c r="B282">
@@ -13506,7 +13499,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283" s="19" t="s">
+      <c r="A283" s="17" t="s">
         <v>342</v>
       </c>
       <c r="B283">
@@ -13526,7 +13519,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284" s="19" t="s">
+      <c r="A284" s="17" t="s">
         <v>343</v>
       </c>
       <c r="B284">
@@ -13546,7 +13539,7 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285" s="19" t="s">
+      <c r="A285" s="17" t="s">
         <v>344</v>
       </c>
       <c r="B285">
@@ -13566,7 +13559,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286" s="19" t="s">
+      <c r="A286" s="17" t="s">
         <v>345</v>
       </c>
       <c r="B286">
@@ -13586,7 +13579,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287" s="19" t="s">
+      <c r="A287" s="17" t="s">
         <v>346</v>
       </c>
       <c r="B287">
@@ -13606,7 +13599,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288" s="19" t="s">
+      <c r="A288" s="17" t="s">
         <v>347</v>
       </c>
       <c r="B288">
@@ -13626,7 +13619,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289" s="19" t="s">
+      <c r="A289" s="17" t="s">
         <v>348</v>
       </c>
       <c r="B289">
@@ -13646,7 +13639,7 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290" s="19" t="s">
+      <c r="A290" s="17" t="s">
         <v>349</v>
       </c>
       <c r="B290">
@@ -13666,7 +13659,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291" s="19" t="s">
+      <c r="A291" s="17" t="s">
         <v>350</v>
       </c>
       <c r="B291">
@@ -13686,7 +13679,7 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292" s="19" t="s">
+      <c r="A292" s="17" t="s">
         <v>351</v>
       </c>
       <c r="B292">
@@ -13706,7 +13699,7 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293" s="19" t="s">
+      <c r="A293" s="17" t="s">
         <v>352</v>
       </c>
       <c r="B293">
@@ -13726,7 +13719,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294" s="19" t="s">
+      <c r="A294" s="17" t="s">
         <v>353</v>
       </c>
       <c r="B294">
@@ -13746,7 +13739,7 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295" s="19" t="s">
+      <c r="A295" s="17" t="s">
         <v>354</v>
       </c>
       <c r="B295">
@@ -13766,7 +13759,7 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296" s="19" t="s">
+      <c r="A296" s="17" t="s">
         <v>355</v>
       </c>
       <c r="B296">
@@ -13786,7 +13779,7 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297" s="19" t="s">
+      <c r="A297" s="17" t="s">
         <v>356</v>
       </c>
       <c r="B297">
@@ -13806,7 +13799,7 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298" s="19" t="s">
+      <c r="A298" s="17" t="s">
         <v>357</v>
       </c>
       <c r="B298">
@@ -13826,7 +13819,7 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299" s="19" t="s">
+      <c r="A299" s="17" t="s">
         <v>358</v>
       </c>
       <c r="B299">
@@ -13846,7 +13839,7 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" s="19" t="s">
+      <c r="A300" s="17" t="s">
         <v>359</v>
       </c>
       <c r="B300">
@@ -13866,7 +13859,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301" s="19" t="s">
+      <c r="A301" s="17" t="s">
         <v>360</v>
       </c>
       <c r="B301">
@@ -13886,7 +13879,7 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302" s="19" t="s">
+      <c r="A302" s="17" t="s">
         <v>361</v>
       </c>
       <c r="B302">
@@ -13906,7 +13899,7 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303" s="19" t="s">
+      <c r="A303" s="17" t="s">
         <v>362</v>
       </c>
       <c r="B303">
@@ -13926,7 +13919,7 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304" s="19" t="s">
+      <c r="A304" s="17" t="s">
         <v>363</v>
       </c>
       <c r="B304">
@@ -13946,7 +13939,7 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305" s="19" t="s">
+      <c r="A305" s="17" t="s">
         <v>364</v>
       </c>
       <c r="B305">
@@ -13966,7 +13959,7 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306" s="19" t="s">
+      <c r="A306" s="17" t="s">
         <v>365</v>
       </c>
       <c r="B306">
@@ -13986,7 +13979,7 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307" s="19" t="s">
+      <c r="A307" s="17" t="s">
         <v>366</v>
       </c>
       <c r="B307">
@@ -14006,7 +13999,7 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308" s="19" t="s">
+      <c r="A308" s="17" t="s">
         <v>367</v>
       </c>
       <c r="B308">
@@ -14026,7 +14019,7 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309" s="19" t="s">
+      <c r="A309" s="17" t="s">
         <v>368</v>
       </c>
       <c r="B309">
@@ -14046,7 +14039,7 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310" s="19" t="s">
+      <c r="A310" s="17" t="s">
         <v>369</v>
       </c>
       <c r="B310">
@@ -14066,7 +14059,7 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311" s="19" t="s">
+      <c r="A311" s="17" t="s">
         <v>370</v>
       </c>
       <c r="B311">
@@ -14086,7 +14079,7 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312" s="19" t="s">
+      <c r="A312" s="17" t="s">
         <v>371</v>
       </c>
       <c r="B312">
@@ -14106,7 +14099,7 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313" s="19" t="s">
+      <c r="A313" s="17" t="s">
         <v>372</v>
       </c>
       <c r="B313">
@@ -14126,7 +14119,7 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314" s="19" t="s">
+      <c r="A314" s="17" t="s">
         <v>373</v>
       </c>
       <c r="B314">
@@ -14146,7 +14139,7 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315" s="19" t="s">
+      <c r="A315" s="17" t="s">
         <v>374</v>
       </c>
       <c r="B315">
@@ -14166,7 +14159,7 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316" s="19" t="s">
+      <c r="A316" s="17" t="s">
         <v>375</v>
       </c>
       <c r="B316">
@@ -14186,7 +14179,7 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317" s="19" t="s">
+      <c r="A317" s="17" t="s">
         <v>376</v>
       </c>
       <c r="B317">
@@ -14206,7 +14199,7 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318" s="19" t="s">
+      <c r="A318" s="17" t="s">
         <v>377</v>
       </c>
       <c r="B318">
@@ -14226,7 +14219,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319" s="19" t="s">
+      <c r="A319" s="17" t="s">
         <v>378</v>
       </c>
       <c r="B319">
@@ -14246,7 +14239,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320" s="19" t="s">
+      <c r="A320" s="17" t="s">
         <v>379</v>
       </c>
       <c r="B320">
@@ -14266,7 +14259,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321" s="19" t="s">
+      <c r="A321" s="17" t="s">
         <v>380</v>
       </c>
       <c r="B321">
@@ -14286,7 +14279,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322" s="19" t="s">
+      <c r="A322" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B322">
@@ -14306,7 +14299,7 @@
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323" s="19" t="s">
+      <c r="A323" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B323">
@@ -14326,7 +14319,7 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324" s="19" t="s">
+      <c r="A324" s="17" t="s">
         <v>381</v>
       </c>
       <c r="B324">
@@ -14346,7 +14339,7 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325" s="19" t="s">
+      <c r="A325" s="17" t="s">
         <v>382</v>
       </c>
       <c r="B325">
@@ -14366,7 +14359,7 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326" s="19" t="s">
+      <c r="A326" s="17" t="s">
         <v>66</v>
       </c>
       <c r="B326">
@@ -14386,7 +14379,7 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327" s="19" t="s">
+      <c r="A327" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B327">
@@ -14406,7 +14399,7 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328" s="19" t="s">
+      <c r="A328" s="17" t="s">
         <v>383</v>
       </c>
       <c r="B328">
@@ -14426,7 +14419,7 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329" s="19" t="s">
+      <c r="A329" s="17" t="s">
         <v>384</v>
       </c>
       <c r="B329">
@@ -14446,7 +14439,7 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330" s="19" t="s">
+      <c r="A330" s="17" t="s">
         <v>385</v>
       </c>
       <c r="B330">
@@ -14466,7 +14459,7 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331" s="19" t="s">
+      <c r="A331" s="17" t="s">
         <v>386</v>
       </c>
       <c r="B331">
@@ -14486,7 +14479,7 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332" s="19" t="s">
+      <c r="A332" s="17" t="s">
         <v>387</v>
       </c>
       <c r="B332">
@@ -14506,7 +14499,7 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333" s="19" t="s">
+      <c r="A333" s="17" t="s">
         <v>388</v>
       </c>
       <c r="B333">
@@ -14526,7 +14519,7 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334" s="19" t="s">
+      <c r="A334" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B334">
@@ -14546,7 +14539,7 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335" s="19" t="s">
+      <c r="A335" s="17" t="s">
         <v>389</v>
       </c>
       <c r="B335">
@@ -14566,7 +14559,7 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336" s="19" t="s">
+      <c r="A336" s="17" t="s">
         <v>390</v>
       </c>
       <c r="B336">
@@ -14586,7 +14579,7 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="19" t="s">
+      <c r="A337" s="17" t="s">
         <v>391</v>
       </c>
       <c r="B337">
@@ -14606,7 +14599,7 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="19" t="s">
+      <c r="A338" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B338">
@@ -14626,7 +14619,7 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="19" t="s">
+      <c r="A339" s="17" t="s">
         <v>392</v>
       </c>
       <c r="B339">
@@ -14646,7 +14639,7 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="19" t="s">
+      <c r="A340" s="17" t="s">
         <v>393</v>
       </c>
       <c r="B340">
@@ -14666,7 +14659,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="19" t="s">
+      <c r="A341" s="17" t="s">
         <v>394</v>
       </c>
       <c r="B341">
@@ -14686,7 +14679,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="19" t="s">
+      <c r="A342" s="17" t="s">
         <v>395</v>
       </c>
       <c r="B342">
@@ -14706,7 +14699,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="19" t="s">
+      <c r="A343" s="17" t="s">
         <v>396</v>
       </c>
       <c r="B343">
@@ -14726,7 +14719,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="19" t="s">
+      <c r="A344" s="17" t="s">
         <v>397</v>
       </c>
       <c r="B344">
@@ -14746,7 +14739,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" s="19" t="s">
+      <c r="A345" s="17" t="s">
         <v>398</v>
       </c>
       <c r="B345">
@@ -14766,7 +14759,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346" s="19" t="s">
+      <c r="A346" s="17" t="s">
         <v>399</v>
       </c>
       <c r="B346">
@@ -14786,7 +14779,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="19" t="s">
+      <c r="A347" s="17" t="s">
         <v>400</v>
       </c>
       <c r="B347">
@@ -14806,7 +14799,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="19" t="s">
+      <c r="A348" s="17" t="s">
         <v>401</v>
       </c>
       <c r="B348">
@@ -14826,7 +14819,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A349" s="19" t="s">
+      <c r="A349" s="17" t="s">
         <v>402</v>
       </c>
       <c r="B349">
@@ -14846,7 +14839,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A350" s="19" t="s">
+      <c r="A350" s="17" t="s">
         <v>403</v>
       </c>
       <c r="B350">
@@ -14866,7 +14859,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A351" s="19" t="s">
+      <c r="A351" s="17" t="s">
         <v>404</v>
       </c>
       <c r="B351">
@@ -14886,7 +14879,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="19" t="s">
+      <c r="A352" s="17" t="s">
         <v>405</v>
       </c>
       <c r="B352">
@@ -14906,7 +14899,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A353" s="19" t="s">
+      <c r="A353" s="17" t="s">
         <v>406</v>
       </c>
       <c r="B353">
@@ -14926,7 +14919,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A354" s="19" t="s">
+      <c r="A354" s="17" t="s">
         <v>407</v>
       </c>
       <c r="B354">
@@ -14946,7 +14939,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A355" s="19" t="s">
+      <c r="A355" s="17" t="s">
         <v>408</v>
       </c>
       <c r="B355">
@@ -14966,7 +14959,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356" s="19" t="s">
+      <c r="A356" s="17" t="s">
         <v>409</v>
       </c>
       <c r="B356">
@@ -14986,7 +14979,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A357" s="19" t="s">
+      <c r="A357" s="17" t="s">
         <v>410</v>
       </c>
       <c r="B357">
@@ -15006,7 +14999,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A358" s="19" t="s">
+      <c r="A358" s="17" t="s">
         <v>411</v>
       </c>
       <c r="B358">
@@ -15026,7 +15019,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A359" s="19" t="s">
+      <c r="A359" s="17" t="s">
         <v>412</v>
       </c>
       <c r="B359">
@@ -15046,7 +15039,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A360" s="19" t="s">
+      <c r="A360" s="17" t="s">
         <v>413</v>
       </c>
       <c r="B360">
@@ -15066,7 +15059,7 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A361" s="19" t="s">
+      <c r="A361" s="17" t="s">
         <v>414</v>
       </c>
       <c r="B361">
@@ -15086,7 +15079,7 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A362" s="19" t="s">
+      <c r="A362" s="17" t="s">
         <v>415</v>
       </c>
       <c r="B362">
@@ -15106,7 +15099,7 @@
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A363" s="19" t="s">
+      <c r="A363" s="17" t="s">
         <v>416</v>
       </c>
       <c r="B363">
@@ -15126,7 +15119,7 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A364" s="19" t="s">
+      <c r="A364" s="17" t="s">
         <v>417</v>
       </c>
       <c r="B364">
@@ -15146,7 +15139,7 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A365" s="19" t="s">
+      <c r="A365" s="17" t="s">
         <v>418</v>
       </c>
       <c r="B365">
@@ -15166,7 +15159,7 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A366" s="19" t="s">
+      <c r="A366" s="17" t="s">
         <v>419</v>
       </c>
       <c r="B366">
@@ -15186,7 +15179,7 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A367" s="19" t="s">
+      <c r="A367" s="17" t="s">
         <v>420</v>
       </c>
       <c r="B367">
@@ -15206,7 +15199,7 @@
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A368" s="19" t="s">
+      <c r="A368" s="17" t="s">
         <v>421</v>
       </c>
       <c r="B368">
@@ -15226,7 +15219,7 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A369" s="19" t="s">
+      <c r="A369" s="17" t="s">
         <v>422</v>
       </c>
       <c r="B369">
@@ -15246,7 +15239,7 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A370" s="19" t="s">
+      <c r="A370" s="17" t="s">
         <v>423</v>
       </c>
       <c r="B370">
@@ -15266,7 +15259,7 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A371" s="19" t="s">
+      <c r="A371" s="17" t="s">
         <v>424</v>
       </c>
       <c r="B371">
@@ -15286,7 +15279,7 @@
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A372" s="19" t="s">
+      <c r="A372" s="17" t="s">
         <v>425</v>
       </c>
       <c r="B372">
@@ -15306,7 +15299,7 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A373" s="19" t="s">
+      <c r="A373" s="17" t="s">
         <v>426</v>
       </c>
       <c r="B373">
@@ -15326,7 +15319,7 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A374" s="19" t="s">
+      <c r="A374" s="17" t="s">
         <v>427</v>
       </c>
       <c r="B374">
@@ -15346,7 +15339,7 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A375" s="19" t="s">
+      <c r="A375" s="17" t="s">
         <v>428</v>
       </c>
       <c r="B375">
@@ -15366,7 +15359,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A376" s="19" t="s">
+      <c r="A376" s="17" t="s">
         <v>429</v>
       </c>
       <c r="B376">
@@ -15386,7 +15379,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A377" s="19" t="s">
+      <c r="A377" s="17" t="s">
         <v>430</v>
       </c>
       <c r="B377">
@@ -15406,7 +15399,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A378" s="19" t="s">
+      <c r="A378" s="17" t="s">
         <v>431</v>
       </c>
       <c r="B378">
@@ -15426,7 +15419,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A379" s="19" t="s">
+      <c r="A379" s="17" t="s">
         <v>432</v>
       </c>
       <c r="B379">
@@ -15446,7 +15439,7 @@
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A380" s="19" t="s">
+      <c r="A380" s="17" t="s">
         <v>433</v>
       </c>
       <c r="B380">
@@ -15466,7 +15459,7 @@
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A381" s="19" t="s">
+      <c r="A381" s="17" t="s">
         <v>434</v>
       </c>
       <c r="B381">
@@ -15486,7 +15479,7 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A382" s="19" t="s">
+      <c r="A382" s="17" t="s">
         <v>435</v>
       </c>
       <c r="B382">
@@ -15506,7 +15499,7 @@
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A383" s="19" t="s">
+      <c r="A383" s="17" t="s">
         <v>436</v>
       </c>
       <c r="B383">
@@ -15526,7 +15519,7 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A384" s="19" t="s">
+      <c r="A384" s="17" t="s">
         <v>437</v>
       </c>
       <c r="B384">
@@ -15546,7 +15539,7 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A385" s="19" t="s">
+      <c r="A385" s="17" t="s">
         <v>438</v>
       </c>
       <c r="B385">
@@ -15566,7 +15559,7 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A386" s="19" t="s">
+      <c r="A386" s="17" t="s">
         <v>439</v>
       </c>
       <c r="B386">
@@ -15586,7 +15579,7 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A387" s="19" t="s">
+      <c r="A387" s="17" t="s">
         <v>440</v>
       </c>
       <c r="B387">
@@ -15606,7 +15599,7 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A388" s="19" t="s">
+      <c r="A388" s="17" t="s">
         <v>441</v>
       </c>
       <c r="B388">
@@ -15626,7 +15619,7 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A389" s="19" t="s">
+      <c r="A389" s="17" t="s">
         <v>442</v>
       </c>
       <c r="B389">
@@ -15646,7 +15639,7 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A390" s="19" t="s">
+      <c r="A390" s="17" t="s">
         <v>443</v>
       </c>
       <c r="B390">
@@ -15666,7 +15659,7 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A391" s="19" t="s">
+      <c r="A391" s="17" t="s">
         <v>444</v>
       </c>
       <c r="B391">
@@ -15686,7 +15679,7 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A392" s="19" t="s">
+      <c r="A392" s="17" t="s">
         <v>445</v>
       </c>
       <c r="B392">
@@ -15706,7 +15699,7 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A393" s="19" t="s">
+      <c r="A393" s="17" t="s">
         <v>446</v>
       </c>
       <c r="B393">
@@ -15726,7 +15719,7 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A394" s="19" t="s">
+      <c r="A394" s="17" t="s">
         <v>447</v>
       </c>
       <c r="B394">
@@ -15746,7 +15739,7 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A395" s="19" t="s">
+      <c r="A395" s="17" t="s">
         <v>448</v>
       </c>
       <c r="B395">
@@ -15766,7 +15759,7 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A396" s="19" t="s">
+      <c r="A396" s="17" t="s">
         <v>449</v>
       </c>
       <c r="B396">
@@ -15786,7 +15779,7 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A397" s="19" t="s">
+      <c r="A397" s="17" t="s">
         <v>450</v>
       </c>
       <c r="B397">
@@ -15806,7 +15799,7 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A398" s="19" t="s">
+      <c r="A398" s="17" t="s">
         <v>451</v>
       </c>
       <c r="B398">
@@ -15826,7 +15819,7 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A399" s="19" t="s">
+      <c r="A399" s="17" t="s">
         <v>452</v>
       </c>
       <c r="B399">
@@ -15846,7 +15839,7 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A400" s="19" t="s">
+      <c r="A400" s="17" t="s">
         <v>453</v>
       </c>
       <c r="B400">
@@ -15866,7 +15859,7 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A401" s="19" t="s">
+      <c r="A401" s="17" t="s">
         <v>454</v>
       </c>
       <c r="B401">
